--- a/更新状況.xlsx
+++ b/更新状況.xlsx
@@ -529,7 +529,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -776,7 +776,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
